--- a/Inputs/IATI returns/IZA - project data for Tableau.xlsx
+++ b/Inputs/IATI returns/IZA - project data for Tableau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Inputs/IATI returns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="8_{72E71E09-1D84-4279-A539-816E60404913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{FC475EE6-451A-4F7B-965C-13F98B6089C8}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="8_{72E71E09-1D84-4279-A539-816E60404913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{9AC262D0-D330-4F44-A0E4-D7A67BE40DB6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="568" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="568" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope and Data Dictionary" sheetId="2" r:id="rId1"/>
@@ -178,9 +178,6 @@
     <t>Foreign, Commonwealth and Development Office</t>
   </si>
   <si>
-    <t>FCDO fully funded</t>
-  </si>
-  <si>
     <t>Funder programme - name</t>
   </si>
   <si>
@@ -620,6 +617,9 @@
   </si>
   <si>
     <t>Harvard Business School</t>
+  </si>
+  <si>
+    <t>FCDO Research - Programmes</t>
   </si>
 </sst>
 </file>
@@ -2272,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U930"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2310,10 +2310,10 @@
         <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2366,26 +2366,26 @@
         <v>45</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G2" s="18" t="str">
         <f>CONCATENATE(E2,"-",ROW(A1))</f>
         <v>GB-1-202568-1</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J2" s="21">
         <v>43282</v>
@@ -2397,19 +2397,19 @@
         <v>329822</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2420,26 +2420,26 @@
         <v>45</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G3" s="18" t="str">
         <f>CONCATENATE(E3,"-",ROW(A2))</f>
         <v>GB-1-202568-2</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J3" s="21">
         <v>43266</v>
@@ -2451,19 +2451,19 @@
         <v>259473</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2474,26 +2474,26 @@
         <v>45</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G4" s="18" t="str">
         <f t="shared" ref="G4:G35" si="0">CONCATENATE(E4,"-",ROW(A3))</f>
         <v>GB-1-202568-3</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="21">
         <v>43252</v>
@@ -2505,19 +2505,19 @@
         <v>258820</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2528,26 +2528,26 @@
         <v>45</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G5" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-4</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="21">
         <v>43374</v>
@@ -2559,19 +2559,19 @@
         <v>100000</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2582,26 +2582,26 @@
         <v>45</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-5</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J6" s="21">
         <v>43252</v>
@@ -2613,19 +2613,19 @@
         <v>269616</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2636,26 +2636,26 @@
         <v>45</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-6</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="21">
         <v>43374</v>
@@ -2667,19 +2667,19 @@
         <v>219969</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2690,26 +2690,26 @@
         <v>45</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-7</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8" s="21">
         <v>43252</v>
@@ -2721,19 +2721,19 @@
         <v>144526</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2744,26 +2744,26 @@
         <v>45</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G9" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-8</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J9" s="21">
         <v>43313</v>
@@ -2775,19 +2775,19 @@
         <v>149856</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2798,26 +2798,26 @@
         <v>45</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G10" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-9</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="21">
         <v>43344</v>
@@ -2829,19 +2829,19 @@
         <v>92203</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2852,26 +2852,26 @@
         <v>45</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-10</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" s="21">
         <v>43252</v>
@@ -2883,19 +2883,19 @@
         <v>329633</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2906,16 +2906,16 @@
         <v>45</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G12" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="21">
         <v>43983</v>
@@ -2935,19 +2935,19 @@
         <v>29944</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2958,26 +2958,26 @@
         <v>45</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G13" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-12</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J13" s="21">
         <v>43983</v>
@@ -2989,19 +2989,19 @@
         <v>390571</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3012,26 +3012,26 @@
         <v>45</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G14" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-13</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J14" s="21">
         <v>43983</v>
@@ -3043,19 +3043,19 @@
         <v>246919</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3066,26 +3066,26 @@
         <v>45</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G15" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-14</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="21">
         <v>44075</v>
@@ -3097,19 +3097,19 @@
         <v>314790</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3120,26 +3120,26 @@
         <v>45</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G16" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-15</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" s="21">
         <v>43983</v>
@@ -3151,19 +3151,19 @@
         <v>394017</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3174,26 +3174,26 @@
         <v>45</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-16</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" s="21">
         <v>43983</v>
@@ -3205,19 +3205,19 @@
         <v>334777</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3228,26 +3228,26 @@
         <v>45</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G18" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-17</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" s="21">
         <v>43983</v>
@@ -3259,19 +3259,19 @@
         <v>26606</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3282,26 +3282,26 @@
         <v>45</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G19" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-18</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J19" s="21">
         <v>43983</v>
@@ -3313,19 +3313,19 @@
         <v>428081</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3336,26 +3336,26 @@
         <v>45</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G20" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-19</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J20" s="21">
         <v>43983</v>
@@ -3367,19 +3367,19 @@
         <v>18800</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3390,26 +3390,26 @@
         <v>45</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G21" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-20</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J21" s="21">
         <v>43983</v>
@@ -3421,19 +3421,19 @@
         <v>284472</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3444,26 +3444,26 @@
         <v>45</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G22" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-21</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" s="21">
         <v>44013</v>
@@ -3475,19 +3475,19 @@
         <v>29945</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3498,26 +3498,26 @@
         <v>45</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G23" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-22</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J23" s="21">
         <v>44013</v>
@@ -3529,19 +3529,19 @@
         <v>30000</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3552,26 +3552,26 @@
         <v>45</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G24" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-23</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J24" s="21">
         <v>44075</v>
@@ -3583,19 +3583,19 @@
         <v>29876</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3606,26 +3606,26 @@
         <v>45</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G25" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-24</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J25" s="21">
         <v>44044</v>
@@ -3637,19 +3637,19 @@
         <v>29989</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3660,26 +3660,26 @@
         <v>45</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G26" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-25</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J26" s="21">
         <v>44013</v>
@@ -3691,19 +3691,19 @@
         <v>9149</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3714,26 +3714,26 @@
         <v>45</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G27" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-26</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J27" s="21">
         <v>44075</v>
@@ -3745,19 +3745,19 @@
         <v>30000</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3768,43 +3768,43 @@
         <v>45</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G28" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-27</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K28" s="22"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3815,43 +3815,43 @@
         <v>45</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G29" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-28</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K29" s="22"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3862,26 +3862,26 @@
         <v>45</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G30" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-29</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J30" s="21">
         <v>44013</v>
@@ -3893,19 +3893,19 @@
         <v>24550</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3916,26 +3916,26 @@
         <v>45</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G31" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-30</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J31" s="21">
         <v>44013</v>
@@ -3947,19 +3947,19 @@
         <v>29942</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3970,26 +3970,26 @@
         <v>45</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G32" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-31</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J32" s="21">
         <v>44044</v>
@@ -4001,19 +4001,19 @@
         <v>17277</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4024,26 +4024,26 @@
         <v>45</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G33" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-32</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J33" s="21">
         <v>44013</v>
@@ -4055,19 +4055,19 @@
         <v>22925</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4078,26 +4078,26 @@
         <v>45</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G34" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-33</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J34" s="21">
         <v>44013</v>
@@ -4109,19 +4109,19 @@
         <v>30000</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4132,26 +4132,26 @@
         <v>45</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G35" s="18" t="str">
         <f t="shared" si="0"/>
         <v>GB-1-202568-34</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J35" s="21">
         <v>44013</v>
@@ -4163,19 +4163,19 @@
         <v>29200</v>
       </c>
       <c r="M35" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O35" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="N35" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="P35" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
